--- a/biology/Zoologie/Abdopus/Abdopus.xlsx
+++ b/biology/Zoologie/Abdopus/Abdopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdopus est un genre de mollusques de la classe des céphalopodes et de l'ordre des octopodes (pieuvres).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (20 juin 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (20 juin 2020) :
 Abdopus abaculus (Norman &amp; Sweeney, 1997)
 Abdopus aculeatus (d'Orbigny, 1834)
 Abdopus capricornicus (Norman &amp; Finn, 2001)
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) M. D. Norman et J. Finn, « Revision of the Octopus horridus species-group, including erection of a new subgenus and description of two member species from the Great Barrier Reef, Australia », Invertebrate Systematics et Invertebrate Systematics, CSIRO Publishing (d), vol. 15, no 1,‎ 2001, p. 13 (ISSN 1445-5226 et 1447-2600, DOI 10.1071/IT99018, lire en ligne)</t>
         </is>
